--- a/metadata_cost.xlsx
+++ b/metadata_cost.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet name="Basic Wall " sheetId="1" r:id="rId1"/>
     <sheet name="Floor " sheetId="2" r:id="rId2"/>
-    <sheet name="Basic Roof " sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -399,144 +398,1834 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>type</v>
+      </c>
+      <c r="B1" t="str">
         <v>totalArea</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>sum</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>totalPrice</v>
       </c>
-      <c r="D1" t="str">
-        <v>totalWidth</v>
-      </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>72.37</v>
+      <c r="A2" t="str">
+        <v>Beton bagvægs sternelement  - 240mm</v>
       </c>
       <c r="B2">
+        <v>921.494</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>5068217</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Beton bagvægs element - 240mm</v>
+      </c>
+      <c r="B3">
+        <v>82.593</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Beton vægelement indervæg - 240mm</v>
+      </c>
+      <c r="B4">
+        <v>1434.687</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Konsolh 250 ved modul 06-C- på 250mm væg</v>
+      </c>
+      <c r="B5">
+        <v>848.377</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Beton vægelement indervæg - 180mm</v>
+      </c>
+      <c r="B6">
+        <v>917.3699999999995</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Beton vægelement kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B7">
+        <v>497.12600000000003</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Beton vægelement kælder ydervæg - 240mm</v>
+      </c>
+      <c r="B8">
+        <v>155.57100000000003</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Beton vægelement kælder indervæg - 240mm</v>
+      </c>
+      <c r="B9">
+        <v>60.787</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>In-Situvæg - kælder ydervæg - 385mm</v>
+      </c>
+      <c r="B10">
+        <v>17.14</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Beton vægelement kælder ydervæg med konsol - 350mm</v>
+      </c>
+      <c r="B11">
+        <v>31.99</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>In-Situvæg - kælder ydervæg - 350mm</v>
+      </c>
+      <c r="B12">
+        <v>45.079</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>In-Situvæg - kælder indervæg - 200mm</v>
+      </c>
+      <c r="B13">
+        <v>10.969</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Beton vægelement kælder indervæg med konsol - 180mm</v>
+      </c>
+      <c r="B14">
+        <v>53.592</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Beton vægelement klæder indervæg med konsol - 250mm</v>
+      </c>
+      <c r="B15">
+        <v>85.112</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Beton vægelement kælder indervæg - 250mm</v>
+      </c>
+      <c r="B16">
+        <v>179.39100000000002</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Beton vægelement kælder indervæg - 180mm</v>
+      </c>
+      <c r="B17">
+        <v>137.014</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Beton vægelement kælder indervæg - 350mm</v>
+      </c>
+      <c r="B18">
+        <v>127.054</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>In-Situvæg - kælder indervæg - 400mm</v>
+      </c>
+      <c r="B19">
+        <v>21.296999999999997</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>In-Situvæg - kælder indervæg - 600mm</v>
+      </c>
+      <c r="B20">
+        <v>26.488</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>In-Situvæg - kælder indervæg - 850mm</v>
+      </c>
+      <c r="B21">
+        <v>62.625</v>
+      </c>
+      <c r="C21">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>303954</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>19.614</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>78456</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>20.384999999999998</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>26500.5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
+      <c r="D21">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 250mm</v>
+      </c>
+      <c r="B22">
+        <v>167.905</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Beton bagvægs sternelement - 180mm</v>
+      </c>
+      <c r="B23">
+        <v>22.656</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>In-Situvæg -støttemur 3000mm</v>
+      </c>
+      <c r="B24">
+        <v>8.544</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>In-Situvæg -støttemur 400mm</v>
+      </c>
+      <c r="B25">
+        <v>113.208</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Beton vægelement Tunnel Nord ydervæg - 250mm</v>
+      </c>
+      <c r="B26">
+        <v>231.086</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Beton vægelement indervæg - Sal 05 - 180mm</v>
+      </c>
+      <c r="B27">
+        <v>90.355</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Beton Konsolelement på 250mm kældervæg - 200mm</v>
+      </c>
+      <c r="B28">
+        <v>2.6159999999999997</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Beton Konsolelement på 180mm kældervæg - 200mm</v>
+      </c>
+      <c r="B29">
+        <v>2.4459999999999997</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>In-Situvæg - kælder ydervæg - 500mm</v>
+      </c>
+      <c r="B30">
+        <v>89.271</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Fundament - 1100mm (LF06)</v>
+      </c>
+      <c r="B31">
+        <v>4.125</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Fundament - 900mm (LF25)</v>
+      </c>
+      <c r="B32">
+        <v>5.381</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Fundament - 650mm (LF33)</v>
+      </c>
+      <c r="B33">
+        <v>15.056999999999999</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Fundament - 1200mm (LF09)</v>
+      </c>
+      <c r="B34">
+        <v>17.717</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Fundament - 600mm (LF31)</v>
+      </c>
+      <c r="B35">
+        <v>0.952</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Fundament - 1200mm (LF42)</v>
+      </c>
+      <c r="B36">
+        <v>1.298</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Fundament - 850mm (LF30)</v>
+      </c>
+      <c r="B37">
+        <v>1.872</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Fundament - 850mm (LF26)</v>
+      </c>
+      <c r="B38">
+        <v>4.613</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Fundament - 1100mm (LF27)</v>
+      </c>
+      <c r="B39">
+        <v>5.944</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Fundament - 850mm (LF28)</v>
+      </c>
+      <c r="B40">
+        <v>4.275</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Fundament - Tunnel Nord - 600mm (LF50)</v>
+      </c>
+      <c r="B41">
+        <v>46.467999999999996</v>
+      </c>
+      <c r="C41">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Fundament - Tunnel Nord - 135mm (LF50)</v>
+      </c>
+      <c r="B42">
+        <v>18.75</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Fundament - 750mm (LF13)</v>
+      </c>
+      <c r="B43">
+        <v>7.54</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Fundament - 1000mm (LF11)</v>
+      </c>
+      <c r="B44">
+        <v>28.568</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Fundament - 650mm (LF29)</v>
+      </c>
+      <c r="B45">
+        <v>9.387</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Fundament - Tunnel Nord - 425mm (LF51)</v>
+      </c>
+      <c r="B46">
+        <v>6.588</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Fundament - 1500mm (LF04)</v>
+      </c>
+      <c r="B47">
+        <v>30.102999999999998</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Fundament - 750mm (LF14)</v>
+      </c>
+      <c r="B48">
+        <v>0.585</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Fundament - 1500mm (LF01)</v>
+      </c>
+      <c r="B49">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Fundament - 1500mm (LF02)</v>
+      </c>
+      <c r="B50">
+        <v>24.448</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Fundament - 1500mm (LF03)</v>
+      </c>
+      <c r="B51">
+        <v>24.448</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Fundament - 1500mm (LF05)</v>
+      </c>
+      <c r="B52">
+        <v>24.438</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Fundament - 650mm (LF23)</v>
+      </c>
+      <c r="B53">
+        <v>2.513</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Fundament - 600mm (LF41)</v>
+      </c>
+      <c r="B54">
+        <v>3.694</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Fundament - 900mm (LF40)</v>
+      </c>
+      <c r="B55">
+        <v>4.785</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 180mm</v>
+      </c>
+      <c r="B56">
+        <v>18.16</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>In-Situvæg - elevatorgrubbe - 385mm</v>
+      </c>
+      <c r="B57">
+        <v>6.464</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>In-Situvæg - elevatorgrubbe- 240mm</v>
+      </c>
+      <c r="B58">
+        <v>4.56</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 300mm</v>
+      </c>
+      <c r="B59">
+        <v>54.775</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Beton vægelement Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B60">
+        <v>57.48400000000001</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Fundament - Tunnel SYD - 600mm (LF60)</v>
+      </c>
+      <c r="B61">
+        <v>19.503</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>insitu Tunnel SYD ydervæg - 250mm</v>
+      </c>
+      <c r="B62">
+        <v>1.937</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Fundament - 1100mm (LF08)</v>
+      </c>
+      <c r="B63">
+        <v>10.725</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Fundament - 1200mm (LF10)</v>
+      </c>
+      <c r="B64">
+        <v>10.939</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Fundament - 2200mm (PF01)</v>
+      </c>
+      <c r="B65">
+        <v>2.75</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Fundament - 2100mm (PF02)</v>
+      </c>
+      <c r="B66">
+        <v>2.625</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Fundament - 2000mm (PF04)</v>
+      </c>
+      <c r="B67">
+        <v>1.5</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Fundament - 800mm (LF17)</v>
+      </c>
+      <c r="B68">
+        <v>3.575</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Fundament - 900mm (LF37)</v>
+      </c>
+      <c r="B69">
+        <v>15.008</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Fundament - 1000mm (PF08)</v>
+      </c>
+      <c r="B70">
+        <v>4.05</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Fundament - 1800mm (PF06)</v>
+      </c>
+      <c r="B71">
+        <v>2.7</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Fundament - 1600mm (PF05)</v>
+      </c>
+      <c r="B72">
+        <v>1.6</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Fundament - 2100mm (PF03)</v>
+      </c>
+      <c r="B73">
+        <v>1.533</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Fundament - 1600mm (PF07)</v>
+      </c>
+      <c r="B74">
+        <v>17.92</v>
+      </c>
+      <c r="C74">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>209121</v>
-      </c>
-      <c r="D5">
-        <v>15.21</v>
+      <c r="D74">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Fundament - 650mm (LF22)</v>
+      </c>
+      <c r="B75">
+        <v>2.712</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Fundament - 500mm (LF16)</v>
+      </c>
+      <c r="B76">
+        <v>0.765</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Fundament - 400mm (LF15)</v>
+      </c>
+      <c r="B77">
+        <v>9.854</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Fundament - 480mm (PF03)</v>
+      </c>
+      <c r="B78">
+        <v>0.13</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Fundament - 900mm (FL38)</v>
+      </c>
+      <c r="B79">
+        <v>2.752</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Fundament - 650mm (LF34)</v>
+      </c>
+      <c r="B80">
+        <v>16.46</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Fundament - 650mm (LF35)</v>
+      </c>
+      <c r="B81">
+        <v>2.6189999999999998</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Fundament - 900mm (LF20)</v>
+      </c>
+      <c r="B82">
+        <v>18.684</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Fundament - 900mm (FL21)</v>
+      </c>
+      <c r="B83">
+        <v>17.795</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>In-Situvæg - 240mm</v>
+      </c>
+      <c r="B84">
+        <v>17.829</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Fundament - 420mm (LF19)</v>
+      </c>
+      <c r="B85">
+        <v>3.6</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Grovbeton - 650mm (GF33)</v>
+      </c>
+      <c r="B86">
+        <v>4.925000000000001</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Beton sternelement - 180mm</v>
+      </c>
+      <c r="B87">
+        <v>51.361</v>
+      </c>
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="D87">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Grovbeton - 1200mm (GF09)</v>
+      </c>
+      <c r="B88">
+        <v>1.7</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Grovbeton - 650mm (GF34)</v>
+      </c>
+      <c r="B89">
+        <v>0.995</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Grovbeton - 1100mm (GF08)</v>
+      </c>
+      <c r="B90">
+        <v>2.393</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>Grovbeton - 500mm (GF16)</v>
+      </c>
+      <c r="B91">
+        <v>0.7050000000000001</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>Grovbeton - 650mm (GF35)</v>
+      </c>
+      <c r="B92">
+        <v>0.637</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Grovbeton - 750mm (GF13)</v>
+      </c>
+      <c r="B93">
+        <v>8.49</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Grovbeton - 1500mm (GF04)</v>
+      </c>
+      <c r="B94">
+        <v>1.072</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Fundament - Tunnel syd - 425mm (LF61)</v>
+      </c>
+      <c r="B95">
+        <v>1.152</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Grovbeton støttemur - 3000mm</v>
+      </c>
+      <c r="B96">
+        <v>21.276000000000003</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Grovbeton - 600mm (GF50)</v>
+      </c>
+      <c r="B97">
+        <v>17.2</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>Grovbeton - 900mm (GF40)</v>
+      </c>
+      <c r="B98">
+        <v>0.81</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>Grovbeton - 1200mm (GF10)</v>
+      </c>
+      <c r="B99">
+        <v>0.81</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>Grovbeton - 650mm (GF22)</v>
+      </c>
+      <c r="B100">
+        <v>1.053</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>Grovbeton - 600mm (GF60)</v>
+      </c>
+      <c r="B101">
+        <v>23.250999999999998</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>Grovbeton -1000mm (GF11)</v>
+      </c>
+      <c r="B102">
+        <v>2.767</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>element Tunnel Nord udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B103">
+        <v>1.448</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>element Tunnel SYD udstøbning ydervæg - 250mm</v>
+      </c>
+      <c r="B104">
+        <v>1.352</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>In-Situvæg - kælder indervæg - 350mm</v>
+      </c>
+      <c r="B105">
+        <v>7.231</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>Konsolh 250 ved modul 8-C- på 180mm væg</v>
+      </c>
+      <c r="B106">
+        <v>0.234</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Konsolh 250 ved modul 8-B- på 180mm væg</v>
+      </c>
+      <c r="B107">
+        <v>0.282</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>Konsolh 250 ved modul 9-B- på 250mm væg</v>
+      </c>
+      <c r="B108">
+        <v>0.06</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>Beton vægelement - 330mm - eksisterende</v>
+      </c>
+      <c r="B109">
+        <v>22.192</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>In-Situvæg - kælder ydervæg - 65mm</v>
+      </c>
+      <c r="B110">
+        <v>1.454</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D110"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>type</v>
+      </c>
+      <c r="B1" t="str">
         <v>totalArea</v>
       </c>
-      <c r="B1" t="str">
+      <c r="C1" t="str">
         <v>sum</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>totalPrice</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>54.391</v>
+      <c r="A2" t="str">
+        <v>Huldæk - 320mm</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>5074.367</v>
       </c>
       <c r="C2">
-        <v>299150.5</v>
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>In-Situ Dæk - 600mm</v>
+      </c>
+      <c r="B3">
+        <v>49.142</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>In-Situ Dæk - 850mm</v>
+      </c>
+      <c r="B4">
+        <v>51.992</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>In-Situ Dæk - 400mm</v>
+      </c>
+      <c r="B5">
+        <v>128.53699999999998</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Massivt forspændt dæk - 400mm</v>
+      </c>
+      <c r="B6">
+        <v>115.05799999999999</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Huldæk - 400mm</v>
+      </c>
+      <c r="B7">
+        <v>1210.182</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>In-Situ Dæk - 320mm</v>
+      </c>
+      <c r="B8">
+        <v>20.52</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Huldæk - 270mm</v>
+      </c>
+      <c r="B9">
+        <v>982.682</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Huldæk - 220mm</v>
+      </c>
+      <c r="B10">
+        <v>40.769999999999996</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Massivdæk - 270mm</v>
+      </c>
+      <c r="B11">
+        <v>10.777</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Svømmendedæk - 120mm</v>
+      </c>
+      <c r="B12">
+        <v>37.492</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Massivdæk - 220mm</v>
+      </c>
+      <c r="B13">
+        <v>4.29</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>300mm Hård Isolering</v>
+      </c>
+      <c r="B14">
+        <v>757.145</v>
+      </c>
+      <c r="C14">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>300mm Gruspude</v>
+      </c>
+      <c r="B15">
+        <v>253.765</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>250mm Hård Isolering Tunnel Nord</v>
+      </c>
+      <c r="B16">
+        <v>111.36400000000002</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>200mm Gruspude Tunnel Nord</v>
+      </c>
+      <c r="B17">
+        <v>111.36400000000002</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>250mm Hård Isolering Tunnel Syd</v>
+      </c>
+      <c r="B18">
+        <v>30.597</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>NaN</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>200mm Gruspude Tunnel Syd</v>
+      </c>
+      <c r="B19">
+        <v>30.351999999999997</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>totalArea</v>
-      </c>
-      <c r="B1" t="str">
-        <v>sum</v>
-      </c>
-      <c r="C1" t="str">
-        <v>totalPrice</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>89.26</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>NaN</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D19"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/metadata_cost.xlsx
+++ b/metadata_cost.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,10 +415,13 @@
         <v>Total Area</v>
       </c>
       <c r="D1" t="str">
+        <v>Total Price</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Total Hours</v>
+      </c>
+      <c r="F1" t="str">
         <v>Total Width</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Total Price</v>
       </c>
     </row>
     <row r="2">
@@ -432,10 +435,10 @@
         <v>72.37</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>303954</v>
       </c>
       <c r="E2">
-        <v>NaN</v>
+        <v>144.74</v>
       </c>
     </row>
     <row r="3">
@@ -449,10 +452,10 @@
         <v>19.614</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>78456</v>
       </c>
       <c r="E3">
-        <v>NaN</v>
+        <v>33.3438</v>
       </c>
     </row>
     <row r="4">
@@ -466,10 +469,10 @@
         <v>20.384999999999998</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>26500.5</v>
       </c>
       <c r="E4">
-        <v>NaN</v>
+        <v>61.155</v>
       </c>
     </row>
     <row r="5">
@@ -480,15 +483,18 @@
         <v>4</v>
       </c>
       <c r="D5">
+        <v>83655</v>
+      </c>
+      <c r="E5">
+        <v>12.84</v>
+      </c>
+      <c r="F5">
         <v>15.21</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F5"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -511,10 +517,10 @@
         <v>Total Area</v>
       </c>
       <c r="D1" t="str">
-        <v>Total Width</v>
+        <v>Total Price</v>
       </c>
       <c r="E1" t="str">
-        <v>Total Price</v>
+        <v>Total Hours</v>
       </c>
     </row>
     <row r="2">
@@ -528,10 +534,10 @@
         <v>54.391</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>299150.5</v>
       </c>
       <c r="E2">
-        <v>NaN</v>
+        <v>27.1955</v>
       </c>
     </row>
   </sheetData>
@@ -559,10 +565,10 @@
         <v>Total Area</v>
       </c>
       <c r="D1" t="str">
-        <v>Total Width</v>
+        <v>Total Price</v>
       </c>
       <c r="E1" t="str">
-        <v>Total Price</v>
+        <v>Total Hours</v>
       </c>
     </row>
     <row r="2">
@@ -576,10 +582,10 @@
         <v>89.26</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>526634</v>
       </c>
       <c r="E2">
-        <v>NaN</v>
+        <v>71.408</v>
       </c>
     </row>
   </sheetData>
